--- a/review.xlsx
+++ b/review.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ID пользователя</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Kochetov</t>
+  </si>
+  <si>
+    <t>Самый лучший бот на свете! Только гляньте на его функционал!</t>
   </si>
   <si>
     <t>Kseniya</t>
@@ -73,7 +76,13 @@
     <t>Удобно с помощью бота хранить важные заметки/вести запись событий, потому что мне неудобно вести бумажные записи, а в телеграмм захожу очень часто</t>
   </si>
   <si>
-    <t>Самый лучший бот на свете! Только гляньте на его функционал!</t>
+    <t>Софья</t>
+  </si>
+  <si>
+    <t>Егерева</t>
+  </si>
+  <si>
+    <t>Очень нравится возможность узнавания погоды, так как это всегда будет актуально, а так же функция создания мероприятия: удобно звать друзей-лицеистов в кофейню на большой перемене, даже если у вас предметы в разных местах</t>
   </si>
 </sst>
 </file>
@@ -415,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +435,7 @@
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="145.42578125" customWidth="1"/>
+    <col min="4" max="4" width="216.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,7 +491,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,13 +499,13 @@
         <v>153340238</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -504,10 +513,24 @@
         <v>379299300</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>395471340</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/review.xlsx
+++ b/review.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID пользователя</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>Очень нравится возможность узнавания погоды, так как это всегда будет актуально, а так же функция создания мероприятия: удобно звать друзей-лицеистов в кофейню на большой перемене, даже если у вас предметы в разных местах</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Сысоев</t>
+  </si>
+  <si>
+    <t>Здорово, что теперь мне не нужно обзванивать друзей, чтобы собраться вместе, бот всё делает за меня.</t>
   </si>
 </sst>
 </file>
@@ -424,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +542,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>574443562</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/review.xlsx
+++ b/review.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\YandexDisk\Телеграм-бот\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>ID пользователя</t>
   </si>
@@ -92,24 +87,34 @@
   </si>
   <si>
     <t>Здорово, что теперь мне не нужно обзванивать друзей, чтобы собраться вместе, бот всё делает за меня.</t>
+  </si>
+  <si>
+    <t>Maxim</t>
+  </si>
+  <si>
+    <t>Bordyugov</t>
+  </si>
+  <si>
+    <t>Хороший функционал. Действительно дружелюбный бот)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -125,24 +130,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -432,22 +428,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="216.7109375" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="16.5703125"/>
+    <col customWidth="1" max="2" min="2" width="13.85546875"/>
+    <col customWidth="1" max="3" min="3" width="16.7109375"/>
+    <col customWidth="1" max="4" min="4" width="216.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +461,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4">
+      <c r="A2" t="n">
         <v>378434615</v>
       </c>
       <c r="B2" t="s">
@@ -475,8 +475,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:4">
+      <c r="A3" t="n">
         <v>492070696</v>
       </c>
       <c r="B3" t="s">
@@ -489,8 +489,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:4">
+      <c r="A4" t="n">
         <v>233973658</v>
       </c>
       <c r="B4" t="s">
@@ -503,8 +503,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:4">
+      <c r="A5" t="n">
         <v>153340238</v>
       </c>
       <c r="B5" t="s">
@@ -517,8 +517,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:4">
+      <c r="A6" t="n">
         <v>379299300</v>
       </c>
       <c r="B6" t="s">
@@ -528,8 +528,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:4">
+      <c r="A7" t="n">
         <v>395471340</v>
       </c>
       <c r="B7" t="s">
@@ -542,8 +542,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:4">
+      <c r="A8" t="n">
         <v>574443562</v>
       </c>
       <c r="B8" t="s">
@@ -556,7 +556,21 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="n">
+        <v>490905654</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/review.xlsx
+++ b/review.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\YandexDisk\Телеграм-бот\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>ID пользователя</t>
   </si>
@@ -96,25 +101,36 @@
   </si>
   <si>
     <t>Хороший функционал. Действительно дружелюбный бот)</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Добросовестнов</t>
+  </si>
+  <si>
+    <t>Понравился функционал бота!</t>
+  </si>
+  <si>
+    <t>Я нашёл баг!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -130,15 +146,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -428,26 +453,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="16.5703125"/>
-    <col customWidth="1" max="2" min="2" width="13.85546875"/>
-    <col customWidth="1" max="3" min="3" width="16.7109375"/>
-    <col customWidth="1" max="4" min="4" width="216.7109375"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="216.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,116 +482,144 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>263714017</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>378434615</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>492070696</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>233973658</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>153340238</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>379299300</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>395471340</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>574443562</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>490905654</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>263714017</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/review.xlsx
+++ b/review.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\YandexDisk\Телеграм-бот\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\YandexDisk\bot_by_ivankot-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ID пользователя</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Добросовестнов</t>
-  </si>
-  <si>
-    <t>Понравился функционал бота!</t>
   </si>
   <si>
     <t>Я нашёл баг!</t>
@@ -454,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +490,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,20 +600,6 @@
       </c>
       <c r="D10" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>263714017</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
